--- a/biology/Zoologie/Gigantisme_insulaire/Gigantisme_insulaire.xlsx
+++ b/biology/Zoologie/Gigantisme_insulaire/Gigantisme_insulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gigantisme insulaire est un phénomène biologique par lequel la taille des espèces sur une île augmente de façon spectaculaire sur plusieurs générations. C'est une forme de sélection naturelle dans laquelle une taille plus importante assure un avantage de survie (voir la règle de Bergmann).
 La grande taille des herbivores les empêche généralement d'échapper ou de se cacher des prédateurs, mais sur les îles, ces derniers sont souvent absents. Ainsi, le gigantisme insulaire n'est pas une tendance évolutive due à un paramètre foncièrement nouveau déterminant une aptitude (comme dans le nanisme insulaire), mais plutôt, la conséquence d'une diminution des contraintes.
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mammifères
-Beaucoup de rongeurs deviennent plus grand sur les îles, alors que les carnivores, les proboscidiens et les artiodactyles deviennent généralement plus petits.
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Beaucoup de rongeurs deviennent plus grand sur les îles, alors que les carnivores, les proboscidiens et les artiodactyles deviennent généralement plus petits.
 Soricomorpha
 † Asoriculus corsicanus, Corse
 † Nesiotites hidalgo , Majorque et Minorque
@@ -540,9 +557,43 @@
 Primates
 Lémuriens géants des genres † Archaeoindris, † Palaeopropithecus et † Megaladapis de Madagascar
 Carnivores
-† Megalenhydris barbaricina, une loutre géante de Sardaigne
-Oiseaux
-Ratites
+† Megalenhydris barbaricina, une loutre géante de Sardaigne</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gigantisme_insulaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gigantisme_insulaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ratites
 † Aepyornis, un genre d'oiseaux-éléphants de Madagascar qui comptait dans ses rangs le plus grand oiseau connu à ce jour.
 Les † moas de Nouvelle-Zélande.
 Anatidae
@@ -558,38 +609,140 @@
 Rapaces
 † Hieraaetus moorei, l'aigle géant de Haast et † Circus eylesi de Nouvelle-Zélande
 † Titanohierax gloveralleni des Caraïbes
-† Buteogallus borrasi de Cuba[1].
+† Buteogallus borrasi de Cuba.
 Perroquets
 † Lophopsittacus mauritianus de l'île Maurice
 Le Kakapo (Strigops kakapo) de Nouvelle-Zélande
 Strigiformes
 † Ornimegalonyx, de Cuba
 † Athene cretensis
-Plusieurs espèces d'effraies du genre Tyto de Méditerranée († Tyto robusta, † Tyto gigantea), des Caraïbes († Tyto pollens) et de Mélanésie[1].
+Plusieurs espèces d'effraies du genre Tyto de Méditerranée († Tyto robusta, † Tyto gigantea), des Caraïbes († Tyto pollens) et de Mélanésie.
 Cigognes
-† Leptoptilos robustus, un grand marabout éteint de Florès[2].
-Reptiles
-Tortues
-Les tortues géantes des îles Galápagos, des Seychelles et des Mascareignes sont souvent considérées comme des exemples de gigantisme insulaire. Toutefois, pendant le Pléistocène, des tortues de tailles comparables étaient présentes en Australie, dans le sud de l'Asie, ou encore en Amérique du Nord[3] et en Amérique du Sud[4], ainsi que sur d'autres îles plus accessibles[3]. Elles étaient aussi présentes en Afrique à la fin du Pliocène[5].
+† Leptoptilos robustus, un grand marabout éteint de Florès.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gigantisme_insulaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gigantisme_insulaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tortues
+Les tortues géantes des îles Galápagos, des Seychelles et des Mascareignes sont souvent considérées comme des exemples de gigantisme insulaire. Toutefois, pendant le Pléistocène, des tortues de tailles comparables étaient présentes en Australie, dans le sud de l'Asie, ou encore en Amérique du Nord et en Amérique du Sud, ainsi que sur d'autres îles plus accessibles. Elles étaient aussi présentes en Afrique à la fin du Pliocène.
 † Geochelone burchardi, Tenerife et Grande Canarie, Îles Canaries
 Sauriens
 Le Dragon de Komodo (Varanus komodoensis) et un varan similaire de Timor sont des exemples de carnivores insulaires géants.
 Sauromalus hispidus et Sauromalus varius des îles au large de la Basse-Californie
-† Lapitiguana, un iguane éteint des Fidji[6]
+† Lapitiguana, un iguane éteint des Fidji
 † Leiolopisma mauritiana et † Macroscincus coctei, 2 Scinques éteints de l'Île Maurice et du Cap-Vert
 Phoboscincus bocourti de l'Île des Pins de Nouvelle-Calédonie
 Corucia zebrata des Îles Salomon
 Les geckos † Phelsuma gigas, de Rodrigues, † Hoplodactylus delcourti, de Nouvelle-Zélande, et Rhacodactylus leachianus de Nouvelle-Calédonie
-† Gallotia goliath, Tenerife, Îles Canaries
-Arthropodes
-Thaumatogryllus conanti de Nihoa.
+† Gallotia goliath, Tenerife, Îles Canaries</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gigantisme_insulaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gigantisme_insulaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Arthropodes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Thaumatogryllus conanti de Nihoa.
 Garypus titanius, un pseudoscorpion
 Deinacrida fallai, le Weta géant des îles Poor Knights
-Dryococelus australis, un phasme de l'Île Lord Howe[7],[8]
+Dryococelus australis, un phasme de l'Île Lord Howe,
 † Labidura herculeana, un perce-oreille de Sainte-Hélène
-Xixuthrus terribilis et Xixuthrus heros, des Fiji[9]
-Flore
-Les mégaherbes des îles sub-antarctiques de Nouvelle-Zélande</t>
+Xixuthrus terribilis et Xixuthrus heros, des Fiji</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gigantisme_insulaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gigantisme_insulaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les mégaherbes des îles sub-antarctiques de Nouvelle-Zélande</t>
         </is>
       </c>
     </row>
